--- a/ldp_v2.xlsx
+++ b/ldp_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jagawron/CLMEL/idle-pod16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50276ACE-4F25-864C-92BB-2194477CB097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEB208-2C86-A94F-87DC-E7F4A0563988}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3460" yWindow="1520" windowWidth="33600" windowHeight="19120" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="181">
   <si>
     <t>include</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>---- $(hostname) IDLE----</t>
+  </si>
+  <si>
+    <t>POD16_VM_Students</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1703,7 +1706,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
